--- a/security-configuration-hardening-guide/vsphere/7.0/VMware vSphere Security Configuration Guide 7 - Controls.xlsx
+++ b/security-configuration-hardening-guide/vsphere/7.0/VMware vSphere Security Configuration Guide 7 - Controls.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201EA43D-5EB5-44A9-A723-5E516F8ABED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83579FE4-85F6-4E86-BD65-D8AC13F00475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11115" yWindow="780" windowWidth="38610" windowHeight="19575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="5115" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="19" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="937">
   <si>
     <t>None</t>
   </si>
@@ -1120,9 +1120,6 @@
   <si>
     <t>(Get-CisService -Name "com.vmware.appliance.timesync").set("NTP")
 (Get-CisService -Name "com.vmware.appliance.ntp").set("0.vmware.pool.ntp.org,1.vmware.pool.ntp.org,2.vmware.pool.ntp.org,3.vmware.pool.ntp.org")</t>
-  </si>
-  <si>
-    <t>(Get-CisService -Name "com.vmware.appliance.local_accounts.policy").get()</t>
   </si>
   <si>
     <t>(Get-CisService -Name "com.vmware.appliance.logging.forwarding").get()</t>
@@ -3013,9 +3010,6 @@
     <t># Get-VDPortgroup $VDPG | Set-VDVlanConfiguration -VlanId "&lt;New VLAN#&gt;"</t>
   </si>
   <si>
-    <t>(Get-CisService -Name "com.vmware.appliance.local_accounts.policy").set(@{max_days=9999; min_days=1; warn_days=7})</t>
-  </si>
-  <si>
     <t>Get-AdvancedSetting -Entity $VC -Name VirtualCenter.VimPasswordExpirationInDays</t>
   </si>
   <si>
@@ -3088,16 +3082,13 @@
 </t>
   </si>
   <si>
-    <t>Version 703-20241018-01</t>
-  </si>
-  <si>
-    <t>This workbook's sheets are protected against change, but without a password. You can unprotect it with Review -&gt; Unprotect Sheet.</t>
-  </si>
-  <si>
     <t>VMware vSphere Security Configuration Guide 7</t>
   </si>
   <si>
     <t>This guidance evolves. Please check the current revision at: https://github.com/vmware/vcf-security-and-compliance-guidelines</t>
+  </si>
+  <si>
+    <t>Version 703-20250422-01</t>
   </si>
 </sst>
 </file>
@@ -4566,7 +4557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C557C3-AEF6-495D-AF0A-8C29FD54EB37}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4580,7 +4571,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4598,32 +4589,27 @@
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
     </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+    </row>
+    <row r="9" spans="1:1" ht="273" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-    </row>
-    <row r="11" spans="1:1" ht="273" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <sheetProtection autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4688,28 +4674,28 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -4718,13 +4704,13 @@
         <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>144</v>
@@ -4760,7 +4746,7 @@
     </row>
     <row r="14" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>298</v>
@@ -4796,7 +4782,7 @@
     </row>
     <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>301</v>
@@ -4822,7 +4808,7 @@
       <c r="C20" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <sheetProtection autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
@@ -4885,7 +4871,7 @@
     </row>
     <row r="5" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>132</v>
@@ -4899,7 +4885,7 @@
     </row>
     <row r="6" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>133</v>
@@ -4913,7 +4899,7 @@
     </row>
     <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>132</v>
@@ -4927,7 +4913,7 @@
     </row>
     <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>132</v>
@@ -4941,7 +4927,7 @@
     </row>
     <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>133</v>
@@ -4955,7 +4941,7 @@
     </row>
     <row r="10" spans="1:4" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>132</v>
@@ -4969,7 +4955,7 @@
     </row>
     <row r="11" spans="1:4" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>133</v>
@@ -4978,12 +4964,12 @@
         <v>293</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>133</v>
@@ -4997,7 +4983,7 @@
     </row>
     <row r="13" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>133</v>
@@ -5011,7 +4997,7 @@
     </row>
     <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>133</v>
@@ -5025,35 +5011,35 @@
     </row>
     <row r="15" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>132</v>
@@ -5067,7 +5053,7 @@
     </row>
     <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>133</v>
@@ -5081,7 +5067,7 @@
     </row>
     <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>133</v>
@@ -5095,7 +5081,7 @@
     </row>
     <row r="20" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>132</v>
@@ -5108,7 +5094,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <sheetProtection autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
@@ -5188,7 +5174,7 @@
     </row>
     <row r="5" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>133</v>
@@ -5211,7 +5197,7 @@
     </row>
     <row r="6" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>132</v>
@@ -5234,7 +5220,7 @@
     </row>
     <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>133</v>
@@ -5257,7 +5243,7 @@
     </row>
     <row r="8" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>133</v>
@@ -5275,12 +5261,12 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>133</v>
@@ -5303,7 +5289,7 @@
     </row>
     <row r="10" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>133</v>
@@ -5326,7 +5312,7 @@
     </row>
     <row r="11" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>133</v>
@@ -5349,7 +5335,7 @@
     </row>
     <row r="12" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>133</v>
@@ -5372,7 +5358,7 @@
     </row>
     <row r="13" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>133</v>
@@ -5395,7 +5381,7 @@
     </row>
     <row r="14" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>133</v>
@@ -5418,7 +5404,7 @@
     </row>
     <row r="15" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>133</v>
@@ -5440,7 +5426,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <sheetProtection autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
@@ -5453,7 +5439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA511558-A1E1-4B42-A158-D2DAD2ACB947}">
   <dimension ref="A1:U126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5482,7 +5470,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -5551,25 +5539,25 @@
         <v>155</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>696</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>131</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>30</v>
@@ -5581,7 +5569,7 @@
         <v>268</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>299</v>
@@ -5593,7 +5581,7 @@
         <v>75</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>22</v>
@@ -5607,28 +5595,28 @@
         <v>38</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C5" s="10">
         <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>11</v>
@@ -5665,28 +5653,28 @@
         <v>39</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C6" s="10">
         <v>7</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>13</v>
@@ -5709,7 +5697,7 @@
         <v>154</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q6" s="44" t="s">
         <v>162</v>
@@ -5723,28 +5711,28 @@
         <v>54</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C7" s="10">
         <v>7</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>36</v>
@@ -5778,34 +5766,34 @@
     </row>
     <row r="8" spans="1:20" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C8" s="10">
         <v>7</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H8" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="I8" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="I8" s="44" t="s">
-        <v>410</v>
-      </c>
       <c r="J8" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K8" s="14">
         <v>9999</v>
@@ -5825,42 +5813,42 @@
         <v>154</v>
       </c>
       <c r="P8" s="44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q8" s="44" t="s">
+        <v>816</v>
+      </c>
+      <c r="R8" s="44" t="s">
         <v>817</v>
-      </c>
-      <c r="R8" s="44" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="8" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C9" s="10">
         <v>7</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>15</v>
@@ -5869,7 +5857,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M9" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -5897,28 +5885,28 @@
         <v>158</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C10" s="10">
         <v>7</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>1</v>
@@ -5927,7 +5915,7 @@
         <v>140</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M10" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -5938,7 +5926,7 @@
         <v>Modify</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="P10" s="44" t="s">
         <v>0</v>
@@ -5952,40 +5940,40 @@
     </row>
     <row r="11" spans="1:20" s="8" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C11" s="10">
         <v>7</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>132</v>
       </c>
       <c r="H11" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="I11" s="43" t="s">
         <v>416</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="J11" s="14" t="s">
         <v>417</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>418</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>140</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M11" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -5999,45 +5987,45 @@
         <v>154</v>
       </c>
       <c r="P11" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C12" s="10">
         <v>7</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H12" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="I12" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="J12" s="14" t="s">
         <v>425</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>426</v>
       </c>
       <c r="K12" s="14">
         <v>30</v>
@@ -6060,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>819</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -6071,28 +6059,28 @@
         <v>40</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C13" s="10">
         <v>7</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H13" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="I13" s="44" t="s">
         <v>427</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>428</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>23</v>
@@ -6129,28 +6117,28 @@
         <v>41</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C14" s="10">
         <v>7</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>14</v>
@@ -6184,31 +6172,31 @@
     </row>
     <row r="15" spans="1:20" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C15" s="10">
         <v>7</v>
       </c>
       <c r="D15" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H15" s="43" t="s">
+        <v>711</v>
+      </c>
+      <c r="I15" s="44" t="s">
         <v>712</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>713</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>1</v>
@@ -6242,31 +6230,31 @@
     </row>
     <row r="16" spans="1:20" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C16" s="10">
         <v>7</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>8</v>
@@ -6300,31 +6288,31 @@
     </row>
     <row r="17" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C17" s="10">
         <v>7</v>
       </c>
       <c r="D17" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>1</v>
@@ -6358,31 +6346,31 @@
     </row>
     <row r="18" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C18" s="10">
         <v>7</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>1</v>
@@ -6416,31 +6404,31 @@
     </row>
     <row r="19" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C19" s="10">
         <v>7</v>
       </c>
       <c r="D19" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>1</v>
@@ -6474,31 +6462,31 @@
     </row>
     <row r="20" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C20" s="10">
         <v>7</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>1</v>
@@ -6532,40 +6520,40 @@
     </row>
     <row r="21" spans="1:18" s="8" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C21" s="10">
         <v>7</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>132</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>140</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M21" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -6582,39 +6570,39 @@
         <v>0</v>
       </c>
       <c r="Q21" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="R21" s="7" t="s">
         <v>821</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="8" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C22" s="10">
         <v>7</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>134</v>
       </c>
       <c r="H22" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="I22" s="44" t="s">
         <v>439</v>
-      </c>
-      <c r="I22" s="44" t="s">
-        <v>440</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>1</v>
@@ -6634,16 +6622,16 @@
         <v>Audit</v>
       </c>
       <c r="O22" s="46" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P22" s="44" t="s">
         <v>0</v>
       </c>
       <c r="Q22" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="R22" s="7" t="s">
         <v>823</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="8" customFormat="1" ht="362.25" x14ac:dyDescent="0.25">
@@ -6651,28 +6639,28 @@
         <v>37</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C23" s="10">
         <v>7</v>
       </c>
       <c r="D23" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>132</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>1</v>
@@ -6701,39 +6689,39 @@
         <v>189</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C24" s="10">
         <v>7</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K24" s="14">
         <v>900</v>
@@ -6756,10 +6744,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="R24" s="7" t="s">
         <v>826</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -6767,28 +6755,28 @@
         <v>42</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C25" s="10">
         <v>7</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H25" s="43" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>29</v>
@@ -6797,7 +6785,7 @@
         <v>140</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M25" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -6808,7 +6796,7 @@
         <v>Modify</v>
       </c>
       <c r="O25" s="46" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P25" s="44" t="s">
         <v>0</v>
@@ -6817,7 +6805,7 @@
         <v>248</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="8" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -6825,28 +6813,28 @@
         <v>150</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C26" s="10">
         <v>7</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H26" s="43" t="s">
+        <v>445</v>
+      </c>
+      <c r="I26" s="44" t="s">
         <v>446</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>447</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>151</v>
@@ -6869,7 +6857,7 @@
         <v>154</v>
       </c>
       <c r="P26" s="44" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>214</v>
@@ -6883,28 +6871,28 @@
         <v>43</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C27" s="10">
         <v>7</v>
       </c>
       <c r="D27" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H27" s="43" t="s">
+        <v>447</v>
+      </c>
+      <c r="I27" s="44" t="s">
         <v>448</v>
-      </c>
-      <c r="I27" s="44" t="s">
-        <v>449</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>1</v>
@@ -6927,7 +6915,7 @@
         <v>216</v>
       </c>
       <c r="P27" s="44" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>217</v>
@@ -6941,37 +6929,37 @@
         <v>98</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C28" s="10">
         <v>7</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H28" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="I28" s="44" t="s">
         <v>450</v>
-      </c>
-      <c r="I28" s="44" t="s">
-        <v>451</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K28" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>677</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>678</v>
       </c>
       <c r="M28" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -6985,7 +6973,7 @@
         <v>216</v>
       </c>
       <c r="P28" s="44" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>219</v>
@@ -6996,34 +6984,34 @@
     </row>
     <row r="29" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C29" s="10">
         <v>7</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>133</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K29" s="48" t="b">
         <v>0</v>
@@ -7043,45 +7031,45 @@
         <v>154</v>
       </c>
       <c r="P29" s="44" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q29" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="R29" s="7" t="s">
         <v>829</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="8" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C30" s="10">
         <v>7</v>
       </c>
       <c r="D30" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>132</v>
       </c>
       <c r="H30" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="I30" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="I30" s="44" t="s">
-        <v>454</v>
-      </c>
       <c r="J30" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K30" s="14">
         <v>4</v>
@@ -7101,51 +7089,51 @@
         <v>154</v>
       </c>
       <c r="P30" s="44" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q30" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="R30" s="7" t="s">
         <v>831</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="8" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C31" s="10">
         <v>7</v>
       </c>
       <c r="D31" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>133</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J31" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="L31" s="13" t="s">
         <v>682</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>683</v>
       </c>
       <c r="M31" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -7159,45 +7147,45 @@
         <v>154</v>
       </c>
       <c r="P31" s="44" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C32" s="10">
         <v>7</v>
       </c>
       <c r="D32" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>133</v>
       </c>
       <c r="H32" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="I32" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="I32" s="44" t="s">
-        <v>457</v>
-      </c>
       <c r="J32" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K32" s="48" t="b">
         <v>0</v>
@@ -7220,42 +7208,42 @@
         <v>0</v>
       </c>
       <c r="Q32" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="R32" s="7" t="s">
         <v>834</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C33" s="10">
         <v>7</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>134</v>
       </c>
       <c r="H33" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="I33" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="I33" s="44" t="s">
-        <v>459</v>
-      </c>
       <c r="J33" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K33" s="13" t="b">
         <v>0</v>
@@ -7278,10 +7266,10 @@
         <v>0</v>
       </c>
       <c r="Q33" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="R33" s="7" t="s">
         <v>836</v>
-      </c>
-      <c r="R33" s="7" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -7289,28 +7277,28 @@
         <v>44</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C34" s="10">
         <v>7</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H34" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="I34" s="44" t="s">
         <v>460</v>
-      </c>
-      <c r="I34" s="44" t="s">
-        <v>461</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>33</v>
@@ -7333,7 +7321,7 @@
         <v>154</v>
       </c>
       <c r="P34" s="44" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>222</v>
@@ -7344,37 +7332,37 @@
     </row>
     <row r="35" spans="1:18" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C35" s="10">
         <v>7</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H35" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="I35" s="44" t="s">
         <v>462</v>
       </c>
-      <c r="I35" s="44" t="s">
-        <v>463</v>
-      </c>
       <c r="J35" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="K35" s="13" t="s">
         <v>686</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>687</v>
       </c>
       <c r="L35" s="13" t="s">
         <v>221</v>
@@ -7391,13 +7379,13 @@
         <v>154</v>
       </c>
       <c r="P35" s="44" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q35" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="R35" s="7" t="s">
         <v>838</v>
-      </c>
-      <c r="R35" s="7" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="8" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
@@ -7405,28 +7393,28 @@
         <v>45</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C36" s="10">
         <v>7</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I36" s="44" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J36" s="14" t="s">
         <v>5</v>
@@ -7435,7 +7423,7 @@
         <v>6</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M36" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -7455,7 +7443,7 @@
         <v>224</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="8" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -7463,28 +7451,28 @@
         <v>46</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C37" s="10">
         <v>7</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H37" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="I37" s="44" t="s">
         <v>465</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>466</v>
       </c>
       <c r="J37" s="14" t="s">
         <v>10</v>
@@ -7493,7 +7481,7 @@
         <v>140</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M37" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -7513,39 +7501,39 @@
         <v>226</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C38" s="10">
         <v>7</v>
       </c>
       <c r="D38" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H38" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="I38" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="I38" s="44" t="s">
-        <v>468</v>
-      </c>
       <c r="J38" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K38" s="48" t="b">
         <v>1</v>
@@ -7568,42 +7556,42 @@
         <v>0</v>
       </c>
       <c r="Q38" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="R38" s="7" t="s">
         <v>841</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C39" s="10">
         <v>7</v>
       </c>
       <c r="D39" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H39" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="I39" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="I39" s="44" t="s">
-        <v>470</v>
-      </c>
       <c r="J39" s="16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K39" s="48" t="b">
         <v>0</v>
@@ -7626,10 +7614,10 @@
         <v>0</v>
       </c>
       <c r="Q39" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="R39" s="7" t="s">
         <v>843</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="8" customFormat="1" ht="189" x14ac:dyDescent="0.25">
@@ -7637,28 +7625,28 @@
         <v>52</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C40" s="10">
         <v>7</v>
       </c>
       <c r="D40" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I40" s="44" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J40" s="14" t="s">
         <v>34</v>
@@ -7681,7 +7669,7 @@
         <v>154</v>
       </c>
       <c r="P40" s="44" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>227</v>
@@ -7695,37 +7683,37 @@
         <v>53</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C41" s="10">
         <v>7</v>
       </c>
       <c r="D41" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H41" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="I41" s="44" t="s">
         <v>472</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>473</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>35</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M41" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -7745,7 +7733,7 @@
         <v>247</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="8" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
@@ -7753,28 +7741,28 @@
         <v>110</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C42" s="10">
         <v>7</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E42" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>389</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H42" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="I42" s="49" t="s">
         <v>474</v>
-      </c>
-      <c r="I42" s="49" t="s">
-        <v>475</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>1</v>
@@ -7797,13 +7785,13 @@
         <v>229</v>
       </c>
       <c r="P42" s="44" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="Q42" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="R42" s="50" t="s">
         <v>847</v>
-      </c>
-      <c r="R42" s="50" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="8" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -7811,28 +7799,28 @@
         <v>111</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C43" s="10">
         <v>7</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E43" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>389</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H43" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="I43" s="49" t="s">
         <v>476</v>
-      </c>
-      <c r="I43" s="49" t="s">
-        <v>477</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>1</v>
@@ -7855,13 +7843,13 @@
         <v>229</v>
       </c>
       <c r="P43" s="44" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="Q43" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="R43" s="50" t="s">
         <v>849</v>
-      </c>
-      <c r="R43" s="50" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="44" spans="1:18" s="8" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
@@ -7869,28 +7857,28 @@
         <v>112</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C44" s="10">
         <v>7</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E44" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>389</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H44" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="I44" s="49" t="s">
         <v>478</v>
-      </c>
-      <c r="I44" s="49" t="s">
-        <v>479</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>1</v>
@@ -7913,42 +7901,42 @@
         <v>229</v>
       </c>
       <c r="P44" s="44" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Q44" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="R44" s="50" t="s">
         <v>851</v>
-      </c>
-      <c r="R44" s="50" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="8" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C45" s="10">
         <v>7</v>
       </c>
       <c r="D45" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>134</v>
       </c>
       <c r="H45" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="I45" s="44" t="s">
         <v>480</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>481</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>1</v>
@@ -7968,45 +7956,45 @@
         <v>Audit</v>
       </c>
       <c r="O45" s="46" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="P45" s="44" t="s">
         <v>0</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="8" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C46" s="10">
         <v>7</v>
       </c>
       <c r="D46" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>133</v>
       </c>
       <c r="H46" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="I46" s="44" t="s">
         <v>482</v>
-      </c>
-      <c r="I46" s="44" t="s">
-        <v>483</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>1</v>
@@ -8026,16 +8014,16 @@
         <v>Modify</v>
       </c>
       <c r="O46" s="46" t="s">
+        <v>794</v>
+      </c>
+      <c r="P46" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="P46" s="44" t="s">
-        <v>796</v>
-      </c>
       <c r="Q46" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="R46" s="7" t="s">
         <v>854</v>
-      </c>
-      <c r="R46" s="7" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -8043,28 +8031,28 @@
         <v>47</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C47" s="10">
         <v>7</v>
       </c>
       <c r="D47" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H47" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="I47" s="44" t="s">
         <v>486</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>487</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>17</v>
@@ -8101,19 +8089,19 @@
         <v>48</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C48" s="10">
         <v>7</v>
       </c>
       <c r="D48" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>133</v>
@@ -8122,7 +8110,7 @@
         <v>32</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>18</v>
@@ -8159,28 +8147,28 @@
         <v>49</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C49" s="10">
         <v>7</v>
       </c>
       <c r="D49" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H49" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="I49" s="44" t="s">
         <v>489</v>
-      </c>
-      <c r="I49" s="44" t="s">
-        <v>490</v>
       </c>
       <c r="J49" s="14" t="s">
         <v>24</v>
@@ -8217,28 +8205,28 @@
         <v>114</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C50" s="10">
         <v>7</v>
       </c>
       <c r="D50" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H50" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="I50" s="44" t="s">
         <v>491</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>492</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>1</v>
@@ -8272,31 +8260,31 @@
     </row>
     <row r="51" spans="1:18" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C51" s="10">
         <v>7</v>
       </c>
       <c r="D51" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F51" s="45" t="s">
         <v>386</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>387</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H51" s="43" t="s">
+        <v>696</v>
+      </c>
+      <c r="I51" s="44" t="s">
         <v>697</v>
-      </c>
-      <c r="I51" s="44" t="s">
-        <v>698</v>
       </c>
       <c r="J51" s="46" t="s">
         <v>1</v>
@@ -8305,7 +8293,7 @@
         <v>174</v>
       </c>
       <c r="L51" s="45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M51" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -8322,39 +8310,39 @@
         <v>0</v>
       </c>
       <c r="Q51" s="44" t="s">
+        <v>699</v>
+      </c>
+      <c r="R51" s="44" t="s">
         <v>700</v>
-      </c>
-      <c r="R51" s="44" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="8" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C52" s="10">
         <v>7</v>
       </c>
       <c r="D52" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H52" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="I52" s="44" t="s">
         <v>494</v>
-      </c>
-      <c r="I52" s="44" t="s">
-        <v>495</v>
       </c>
       <c r="J52" s="14" t="s">
         <v>1</v>
@@ -8383,7 +8371,7 @@
         <v>242</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -8391,28 +8379,28 @@
         <v>117</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C53" s="10">
         <v>7</v>
       </c>
       <c r="D53" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H53" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="I53" s="44" t="s">
         <v>496</v>
-      </c>
-      <c r="I53" s="44" t="s">
-        <v>497</v>
       </c>
       <c r="J53" s="14" t="s">
         <v>118</v>
@@ -8441,36 +8429,36 @@
         <v>246</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="8" customFormat="1" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C54" s="10">
         <v>7</v>
       </c>
       <c r="D54" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H54" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="I54" s="44" t="s">
         <v>498</v>
-      </c>
-      <c r="I54" s="44" t="s">
-        <v>499</v>
       </c>
       <c r="J54" s="14" t="s">
         <v>1</v>
@@ -8479,7 +8467,7 @@
         <v>26</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M54" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -8490,16 +8478,16 @@
         <v>Modify</v>
       </c>
       <c r="O54" s="46" t="s">
+        <v>794</v>
+      </c>
+      <c r="P54" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="P54" s="44" t="s">
-        <v>796</v>
-      </c>
       <c r="Q54" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="R54" s="7" t="s">
         <v>859</v>
-      </c>
-      <c r="R54" s="7" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="8" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -8507,28 +8495,28 @@
         <v>50</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C55" s="10">
         <v>7</v>
       </c>
       <c r="D55" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H55" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="I55" s="44" t="s">
         <v>500</v>
-      </c>
-      <c r="I55" s="44" t="s">
-        <v>501</v>
       </c>
       <c r="J55" s="14" t="s">
         <v>19</v>
@@ -8565,28 +8553,28 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C56" s="10">
         <v>7</v>
       </c>
       <c r="D56" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H56" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="I56" s="44" t="s">
         <v>502</v>
-      </c>
-      <c r="I56" s="44" t="s">
-        <v>503</v>
       </c>
       <c r="J56" s="14" t="s">
         <v>255</v>
@@ -8609,7 +8597,7 @@
         <v>238</v>
       </c>
       <c r="P56" s="44" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>239</v>
@@ -8623,28 +8611,28 @@
         <v>51</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C57" s="10">
         <v>7</v>
       </c>
       <c r="D57" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G57" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H57" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="I57" s="44" t="s">
         <v>504</v>
-      </c>
-      <c r="I57" s="44" t="s">
-        <v>505</v>
       </c>
       <c r="J57" s="46" t="s">
         <v>1</v>
@@ -8653,7 +8641,7 @@
         <v>107</v>
       </c>
       <c r="L57" s="45" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M57" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -8667,42 +8655,42 @@
         <v>216</v>
       </c>
       <c r="P57" s="44" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>245</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="58" spans="1:18" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C58" s="10">
         <v>7</v>
       </c>
       <c r="D58" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="G58" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H58" s="43" t="s">
+        <v>505</v>
+      </c>
+      <c r="I58" s="44" t="s">
         <v>506</v>
-      </c>
-      <c r="I58" s="44" t="s">
-        <v>507</v>
       </c>
       <c r="J58" s="46" t="s">
         <v>1</v>
@@ -8722,16 +8710,16 @@
         <v>Audit</v>
       </c>
       <c r="O58" s="46" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P58" s="44" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="Q58" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="R58" s="7" t="s">
         <v>862</v>
-      </c>
-      <c r="R58" s="7" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="8" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
@@ -8739,28 +8727,28 @@
         <v>95</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C59" s="10">
         <v>7</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G59" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H59" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="I59" s="51" t="s">
         <v>515</v>
-      </c>
-      <c r="I59" s="51" t="s">
-        <v>516</v>
       </c>
       <c r="J59" s="46" t="s">
         <v>1</v>
@@ -8786,48 +8774,48 @@
         <v>106</v>
       </c>
       <c r="Q59" s="44" t="s">
+        <v>863</v>
+      </c>
+      <c r="R59" s="44" t="s">
         <v>864</v>
-      </c>
-      <c r="R59" s="44" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C60" s="10">
         <v>7</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G60" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H60" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="I60" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="I60" s="44" t="s">
-        <v>518</v>
-      </c>
       <c r="J60" s="46" t="s">
+        <v>728</v>
+      </c>
+      <c r="K60" s="45" t="s">
         <v>729</v>
       </c>
-      <c r="K60" s="45" t="s">
+      <c r="L60" s="45" t="s">
         <v>730</v>
-      </c>
-      <c r="L60" s="45" t="s">
-        <v>731</v>
       </c>
       <c r="M60" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -8841,51 +8829,51 @@
         <v>153</v>
       </c>
       <c r="P60" s="44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Q60" s="44" t="s">
+        <v>865</v>
+      </c>
+      <c r="R60" s="44" t="s">
         <v>866</v>
-      </c>
-      <c r="R60" s="44" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C61" s="10">
         <v>7</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G61" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H61" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="I61" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="I61" s="44" t="s">
-        <v>520</v>
-      </c>
       <c r="J61" s="46" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K61" s="45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L61" s="45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M61" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -8899,51 +8887,51 @@
         <v>153</v>
       </c>
       <c r="P61" s="44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Q61" s="44" t="s">
+        <v>867</v>
+      </c>
+      <c r="R61" s="44" t="s">
         <v>868</v>
-      </c>
-      <c r="R61" s="44" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C62" s="10">
         <v>7</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G62" s="46" t="s">
         <v>133</v>
       </c>
       <c r="H62" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="I62" s="44" t="s">
         <v>521</v>
-      </c>
-      <c r="I62" s="44" t="s">
-        <v>522</v>
       </c>
       <c r="J62" s="46" t="s">
         <v>105</v>
       </c>
       <c r="K62" s="45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L62" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M62" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -8957,7 +8945,7 @@
         <v>153</v>
       </c>
       <c r="P62" s="44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q62" s="44" t="s">
         <v>136</v>
@@ -8968,40 +8956,40 @@
     </row>
     <row r="63" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C63" s="10">
         <v>7</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F63" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G63" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H63" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="I63" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="I63" s="41" t="s">
-        <v>524</v>
-      </c>
       <c r="J63" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="K63" s="45" t="s">
         <v>733</v>
       </c>
-      <c r="K63" s="45" t="s">
+      <c r="L63" s="45" t="s">
         <v>734</v>
-      </c>
-      <c r="L63" s="45" t="s">
-        <v>735</v>
       </c>
       <c r="M63" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9015,51 +9003,51 @@
         <v>153</v>
       </c>
       <c r="P63" s="44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q63" s="44" t="s">
+        <v>869</v>
+      </c>
+      <c r="R63" s="44" t="s">
         <v>870</v>
-      </c>
-      <c r="R63" s="44" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="8" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C64" s="10">
         <v>7</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F64" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G64" s="45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H64" s="43" t="s">
+        <v>524</v>
+      </c>
+      <c r="I64" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="I64" s="41" t="s">
-        <v>526</v>
-      </c>
       <c r="J64" s="46" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K64" s="45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L64" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M64" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9073,51 +9061,51 @@
         <v>153</v>
       </c>
       <c r="P64" s="44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q64" s="44" t="s">
+        <v>871</v>
+      </c>
+      <c r="R64" s="44" t="s">
         <v>872</v>
-      </c>
-      <c r="R64" s="44" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C65" s="10">
         <v>7</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F65" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G65" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H65" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="I65" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="I65" s="41" t="s">
-        <v>528</v>
-      </c>
       <c r="J65" s="46" t="s">
+        <v>736</v>
+      </c>
+      <c r="K65" s="45" t="s">
         <v>737</v>
       </c>
-      <c r="K65" s="45" t="s">
+      <c r="L65" s="45" t="s">
         <v>738</v>
-      </c>
-      <c r="L65" s="45" t="s">
-        <v>739</v>
       </c>
       <c r="M65" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9131,51 +9119,51 @@
         <v>153</v>
       </c>
       <c r="P65" s="44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q65" s="44" t="s">
+        <v>873</v>
+      </c>
+      <c r="R65" s="44" t="s">
         <v>874</v>
-      </c>
-      <c r="R65" s="44" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C66" s="10">
         <v>7</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F66" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G66" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H66" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="I66" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="I66" s="41" t="s">
-        <v>530</v>
-      </c>
       <c r="J66" s="46" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K66" s="45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L66" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M66" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9189,51 +9177,51 @@
         <v>153</v>
       </c>
       <c r="P66" s="44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q66" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="R66" s="44" t="s">
         <v>876</v>
-      </c>
-      <c r="R66" s="44" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C67" s="10">
         <v>7</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F67" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G67" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H67" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="I67" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="I67" s="44" t="s">
-        <v>532</v>
-      </c>
       <c r="J67" s="46" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K67" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L67" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M67" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9250,48 +9238,48 @@
         <v>0</v>
       </c>
       <c r="Q67" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="R67" s="44" t="s">
         <v>878</v>
-      </c>
-      <c r="R67" s="44" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C68" s="10">
         <v>7</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F68" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G68" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H68" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="I68" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="I68" s="44" t="s">
-        <v>534</v>
-      </c>
       <c r="J68" s="46" t="s">
+        <v>741</v>
+      </c>
+      <c r="K68" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="K68" s="45" t="s">
+      <c r="L68" s="45" t="s">
         <v>743</v>
-      </c>
-      <c r="L68" s="45" t="s">
-        <v>744</v>
       </c>
       <c r="M68" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9305,51 +9293,51 @@
         <v>153</v>
       </c>
       <c r="P68" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="Q68" s="44" t="s">
+        <v>879</v>
+      </c>
+      <c r="R68" s="44" t="s">
         <v>880</v>
-      </c>
-      <c r="R68" s="44" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C69" s="10">
         <v>7</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F69" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H69" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="I69" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="I69" s="44" t="s">
-        <v>536</v>
-      </c>
       <c r="J69" s="46" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K69" s="45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L69" s="45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M69" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9363,13 +9351,13 @@
         <v>153</v>
       </c>
       <c r="P69" s="44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Q69" s="44" t="s">
+        <v>881</v>
+      </c>
+      <c r="R69" s="44" t="s">
         <v>882</v>
-      </c>
-      <c r="R69" s="44" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="70" spans="1:18" s="8" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -9377,37 +9365,37 @@
         <v>103</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C70" s="10">
         <v>7</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F70" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G70" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H70" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="I70" s="44" t="s">
         <v>547</v>
-      </c>
-      <c r="I70" s="44" t="s">
-        <v>548</v>
       </c>
       <c r="J70" s="46" t="s">
         <v>104</v>
       </c>
       <c r="K70" s="45" t="s">
+        <v>729</v>
+      </c>
+      <c r="L70" s="45" t="s">
         <v>730</v>
-      </c>
-      <c r="L70" s="45" t="s">
-        <v>731</v>
       </c>
       <c r="M70" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9421,7 +9409,7 @@
         <v>153</v>
       </c>
       <c r="P70" s="44" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q70" s="44" t="s">
         <v>137</v>
@@ -9432,40 +9420,40 @@
     </row>
     <row r="71" spans="1:18" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C71" s="10">
         <v>7</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I71" s="44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J71" s="46" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K71" s="45" t="s">
+        <v>729</v>
+      </c>
+      <c r="L71" s="45" t="s">
         <v>730</v>
-      </c>
-      <c r="L71" s="45" t="s">
-        <v>731</v>
       </c>
       <c r="M71" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9479,13 +9467,13 @@
         <v>153</v>
       </c>
       <c r="P71" s="44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Q71" s="44" t="s">
+        <v>883</v>
+      </c>
+      <c r="R71" s="44" t="s">
         <v>884</v>
-      </c>
-      <c r="R71" s="44" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="8" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
@@ -9493,25 +9481,25 @@
         <v>96</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C72" s="10">
         <v>7</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G72" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I72" s="44" t="s">
         <v>108</v>
@@ -9534,54 +9522,54 @@
         <v>Audit</v>
       </c>
       <c r="O72" s="46" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P72" s="44" t="s">
         <v>0</v>
       </c>
       <c r="Q72" s="44" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R72" s="44" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C73" s="10">
         <v>7</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F73" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G73" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H73" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="I73" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="I73" s="44" t="s">
+      <c r="J73" s="46" t="s">
         <v>552</v>
       </c>
-      <c r="J73" s="46" t="s">
-        <v>553</v>
-      </c>
       <c r="K73" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L73" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M73" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9595,13 +9583,13 @@
         <v>153</v>
       </c>
       <c r="P73" s="44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Q73" s="44" t="s">
+        <v>886</v>
+      </c>
+      <c r="R73" s="44" t="s">
         <v>887</v>
-      </c>
-      <c r="R73" s="44" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="8" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
@@ -9609,28 +9597,28 @@
         <v>97</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C74" s="10">
         <v>7</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G74" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H74" s="43" t="s">
+        <v>723</v>
+      </c>
+      <c r="I74" s="44" t="s">
         <v>724</v>
-      </c>
-      <c r="I74" s="44" t="s">
-        <v>725</v>
       </c>
       <c r="J74" s="46" t="s">
         <v>1</v>
@@ -9650,54 +9638,54 @@
         <v>Modify</v>
       </c>
       <c r="O74" s="46" t="s">
+        <v>804</v>
+      </c>
+      <c r="P74" s="44" t="s">
         <v>805</v>
       </c>
-      <c r="P74" s="44" t="s">
-        <v>806</v>
-      </c>
       <c r="Q74" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="R74" s="44" t="s">
         <v>889</v>
-      </c>
-      <c r="R74" s="44" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C75" s="10">
         <v>7</v>
       </c>
       <c r="D75" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H75" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="I75" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="I75" s="44" t="s">
-        <v>556</v>
-      </c>
       <c r="J75" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="K75" s="45" t="s">
         <v>747</v>
       </c>
-      <c r="K75" s="45" t="s">
+      <c r="L75" s="45" t="s">
         <v>748</v>
-      </c>
-      <c r="L75" s="45" t="s">
-        <v>749</v>
       </c>
       <c r="M75" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9708,7 +9696,7 @@
         <v>Modify</v>
       </c>
       <c r="O75" s="46" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="P75" s="44" t="s">
         <v>0</v>
@@ -9722,37 +9710,37 @@
     </row>
     <row r="76" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C76" s="10">
         <v>7</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G76" s="45" t="s">
         <v>132</v>
       </c>
       <c r="H76" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="I76" s="44" t="s">
         <v>557</v>
       </c>
-      <c r="I76" s="44" t="s">
-        <v>558</v>
-      </c>
       <c r="J76" s="52" t="s">
+        <v>749</v>
+      </c>
+      <c r="K76" s="45" t="s">
         <v>750</v>
-      </c>
-      <c r="K76" s="45" t="s">
-        <v>751</v>
       </c>
       <c r="L76" s="45" t="s">
         <v>12</v>
@@ -9772,48 +9760,48 @@
         <v>0</v>
       </c>
       <c r="Q76" s="44" t="s">
+        <v>890</v>
+      </c>
+      <c r="R76" s="44" t="s">
         <v>891</v>
-      </c>
-      <c r="R76" s="44" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="77" spans="1:18" s="8" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C77" s="10">
         <v>7</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G77" s="45" t="s">
         <v>132</v>
       </c>
       <c r="H77" s="43" t="s">
+        <v>558</v>
+      </c>
+      <c r="I77" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="I77" s="43" t="s">
-        <v>560</v>
-      </c>
       <c r="J77" s="46" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K77" s="45" t="s">
         <v>140</v>
       </c>
       <c r="L77" s="45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M77" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9830,42 +9818,42 @@
         <v>0</v>
       </c>
       <c r="Q77" s="44" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="R77" s="44" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C78" s="10">
         <v>7</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>132</v>
       </c>
       <c r="H78" s="43" t="s">
+        <v>560</v>
+      </c>
+      <c r="I78" s="43" t="s">
         <v>561</v>
       </c>
-      <c r="I78" s="43" t="s">
-        <v>562</v>
-      </c>
       <c r="J78" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K78" s="45" t="s">
         <v>65</v>
@@ -9888,48 +9876,48 @@
         <v>0</v>
       </c>
       <c r="Q78" s="44" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="R78" s="44" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="8" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C79" s="10">
         <v>7</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G79" s="45" t="s">
         <v>132</v>
       </c>
       <c r="H79" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="I79" s="43" t="s">
         <v>563</v>
       </c>
-      <c r="I79" s="43" t="s">
-        <v>564</v>
-      </c>
       <c r="J79" s="46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K79" s="45" t="s">
         <v>140</v>
       </c>
       <c r="L79" s="45" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M79" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -9946,10 +9934,10 @@
         <v>0</v>
       </c>
       <c r="Q79" s="44" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="R79" s="44" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -9957,28 +9945,28 @@
         <v>156</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C80" s="10">
         <v>7</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G80" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H80" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="I80" s="53" t="s">
         <v>565</v>
-      </c>
-      <c r="I80" s="53" t="s">
-        <v>566</v>
       </c>
       <c r="J80" s="46" t="s">
         <v>1</v>
@@ -10001,7 +9989,7 @@
         <v>251</v>
       </c>
       <c r="P80" s="44" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="Q80" s="44" t="s">
         <v>1</v>
@@ -10015,28 +10003,28 @@
         <v>84</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C81" s="10">
         <v>7</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G81" s="54" t="s">
         <v>134</v>
       </c>
       <c r="H81" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="I81" s="49" t="s">
         <v>569</v>
-      </c>
-      <c r="I81" s="49" t="s">
-        <v>570</v>
       </c>
       <c r="J81" s="52" t="s">
         <v>256</v>
@@ -10062,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="Q81" s="44" t="s">
+        <v>893</v>
+      </c>
+      <c r="R81" s="44" t="s">
         <v>894</v>
-      </c>
-      <c r="R81" s="44" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="82" spans="1:18" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -10073,28 +10061,28 @@
         <v>85</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C82" s="10">
         <v>7</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G82" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H82" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="I82" s="49" t="s">
         <v>571</v>
-      </c>
-      <c r="I82" s="49" t="s">
-        <v>572</v>
       </c>
       <c r="J82" s="52" t="s">
         <v>257</v>
@@ -10117,45 +10105,45 @@
         <v>251</v>
       </c>
       <c r="P82" s="44" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="Q82" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="R82" s="44" t="s">
         <v>896</v>
-      </c>
-      <c r="R82" s="44" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="83" spans="1:18" s="8" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A83" s="43" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C83" s="10">
         <v>7</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>132</v>
       </c>
       <c r="H83" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="I83" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="I83" s="44" t="s">
-        <v>568</v>
-      </c>
       <c r="J83" s="46" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K83" s="46">
         <v>90</v>
@@ -10178,10 +10166,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="44" t="s">
+        <v>897</v>
+      </c>
+      <c r="R83" s="44" t="s">
         <v>898</v>
-      </c>
-      <c r="R83" s="44" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="84" spans="1:18" s="8" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -10189,37 +10177,37 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C84" s="10">
         <v>7</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G84" s="54" t="s">
         <v>132</v>
       </c>
       <c r="H84" s="43" t="s">
+        <v>572</v>
+      </c>
+      <c r="I84" s="49" t="s">
         <v>573</v>
-      </c>
-      <c r="I84" s="49" t="s">
-        <v>574</v>
       </c>
       <c r="J84" s="46" t="s">
         <v>250</v>
       </c>
       <c r="K84" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="L84" s="45" t="s">
         <v>757</v>
-      </c>
-      <c r="L84" s="45" t="s">
-        <v>758</v>
       </c>
       <c r="M84" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -10236,42 +10224,42 @@
         <v>166</v>
       </c>
       <c r="Q84" s="44" t="s">
+        <v>899</v>
+      </c>
+      <c r="R84" s="44" t="s">
         <v>900</v>
-      </c>
-      <c r="R84" s="44" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="85" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C85" s="10">
         <v>7</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G85" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H85" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="I85" s="44" t="s">
         <v>583</v>
       </c>
-      <c r="I85" s="44" t="s">
-        <v>584</v>
-      </c>
       <c r="J85" s="46" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K85" s="46">
         <v>5</v>
@@ -10294,48 +10282,48 @@
         <v>0</v>
       </c>
       <c r="Q85" s="44" t="s">
+        <v>901</v>
+      </c>
+      <c r="R85" s="44" t="s">
         <v>902</v>
-      </c>
-      <c r="R85" s="44" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="86" spans="1:18" s="8" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C86" s="10">
         <v>7</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F86" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G86" s="45" t="s">
         <v>132</v>
       </c>
       <c r="H86" s="43" t="s">
+        <v>703</v>
+      </c>
+      <c r="I86" s="43" t="s">
         <v>704</v>
       </c>
-      <c r="I86" s="43" t="s">
+      <c r="J86" s="46" t="s">
         <v>705</v>
       </c>
-      <c r="J86" s="46" t="s">
-        <v>706</v>
-      </c>
       <c r="K86" s="45" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L86" s="45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M86" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -10346,54 +10334,54 @@
         <v>Modify</v>
       </c>
       <c r="O86" s="46" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P86" s="44" t="s">
         <v>0</v>
       </c>
       <c r="Q86" s="44" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R86" s="44" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="87" spans="1:18" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A87" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C87" s="10">
         <v>7</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G87" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H87" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="I87" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="I87" s="44" t="s">
-        <v>586</v>
-      </c>
       <c r="J87" s="46" t="s">
+        <v>760</v>
+      </c>
+      <c r="K87" s="45" t="s">
         <v>761</v>
       </c>
-      <c r="K87" s="45" t="s">
-        <v>762</v>
-      </c>
       <c r="L87" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M87" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -10404,7 +10392,7 @@
         <v>Audit</v>
       </c>
       <c r="O87" s="46" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P87" s="44" t="s">
         <v>0</v>
@@ -10418,40 +10406,40 @@
     </row>
     <row r="88" spans="1:18" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A88" s="43" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C88" s="10">
         <v>7</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G88" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H88" s="43" t="s">
+        <v>586</v>
+      </c>
+      <c r="I88" s="49" t="s">
         <v>587</v>
       </c>
-      <c r="I88" s="49" t="s">
-        <v>588</v>
-      </c>
       <c r="J88" s="46" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K88" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L88" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M88" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -10462,48 +10450,48 @@
         <v>Audit</v>
       </c>
       <c r="O88" s="46" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P88" s="44" t="s">
         <v>0</v>
       </c>
       <c r="Q88" s="44" t="s">
+        <v>904</v>
+      </c>
+      <c r="R88" s="44" t="s">
         <v>905</v>
-      </c>
-      <c r="R88" s="44" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="89" spans="1:18" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="43" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C89" s="10">
         <v>7</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G89" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H89" s="43" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I89" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J89" s="46" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K89" s="45" t="s">
         <v>221</v>
@@ -10520,16 +10508,16 @@
         <v>Audit</v>
       </c>
       <c r="O89" s="46" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P89" s="44" t="s">
         <v>0</v>
       </c>
       <c r="Q89" s="44" t="s">
+        <v>906</v>
+      </c>
+      <c r="R89" s="44" t="s">
         <v>907</v>
-      </c>
-      <c r="R89" s="44" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="63" x14ac:dyDescent="0.25">
@@ -10537,28 +10525,28 @@
         <v>86</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C90" s="10">
         <v>7</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G90" s="45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H90" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="I90" s="49" t="s">
         <v>590</v>
-      </c>
-      <c r="I90" s="49" t="s">
-        <v>591</v>
       </c>
       <c r="J90" s="56" t="s">
         <v>1</v>
@@ -10578,7 +10566,7 @@
         <v>Audit</v>
       </c>
       <c r="O90" s="46" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P90" s="47" t="s">
         <v>328</v>
@@ -10595,28 +10583,28 @@
         <v>87</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C91" s="10">
         <v>7</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G91" s="45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H91" s="43" t="s">
+        <v>591</v>
+      </c>
+      <c r="I91" s="49" t="s">
         <v>592</v>
-      </c>
-      <c r="I91" s="49" t="s">
-        <v>593</v>
       </c>
       <c r="J91" s="56" t="s">
         <v>1</v>
@@ -10636,7 +10624,7 @@
         <v>Audit</v>
       </c>
       <c r="O91" s="46" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P91" s="47" t="s">
         <v>328</v>
@@ -10653,28 +10641,28 @@
         <v>88</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C92" s="10">
         <v>7</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G92" s="45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H92" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="I92" s="49" t="s">
         <v>594</v>
-      </c>
-      <c r="I92" s="49" t="s">
-        <v>595</v>
       </c>
       <c r="J92" s="56" t="s">
         <v>1</v>
@@ -10694,7 +10682,7 @@
         <v>Audit</v>
       </c>
       <c r="O92" s="46" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P92" s="47" t="s">
         <v>328</v>
@@ -10708,31 +10696,31 @@
     </row>
     <row r="93" spans="1:18" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A93" s="43" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C93" s="10">
         <v>7</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F93" s="45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G93" s="45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H93" s="43" t="s">
+        <v>595</v>
+      </c>
+      <c r="I93" s="44" t="s">
         <v>596</v>
-      </c>
-      <c r="I93" s="44" t="s">
-        <v>597</v>
       </c>
       <c r="J93" s="46" t="s">
         <v>1</v>
@@ -10752,16 +10740,16 @@
         <v>Audit</v>
       </c>
       <c r="O93" s="46" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P93" s="44" t="s">
         <v>0</v>
       </c>
       <c r="Q93" s="44" t="s">
+        <v>908</v>
+      </c>
+      <c r="R93" s="44" t="s">
         <v>909</v>
-      </c>
-      <c r="R93" s="44" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="110.25" x14ac:dyDescent="0.25">
@@ -10769,28 +10757,28 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C94" s="10">
         <v>7</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G94" s="45" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H94" s="58" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I94" s="59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J94" s="56" t="s">
         <v>1</v>
@@ -10799,7 +10787,7 @@
         <v>254</v>
       </c>
       <c r="L94" s="56" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M94" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -10810,7 +10798,7 @@
         <v>Modify</v>
       </c>
       <c r="O94" s="46" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P94" s="47" t="s">
         <v>0</v>
@@ -10819,7 +10807,7 @@
         <v>335</v>
       </c>
       <c r="R94" s="47" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="126" x14ac:dyDescent="0.25">
@@ -10827,28 +10815,28 @@
         <v>90</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C95" s="10">
         <v>7</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G95" s="45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H95" s="58" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I95" s="59" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J95" s="56" t="s">
         <v>1</v>
@@ -10868,16 +10856,16 @@
         <v>Audit</v>
       </c>
       <c r="O95" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="P95" s="47" t="s">
         <v>812</v>
-      </c>
-      <c r="P95" s="47" t="s">
-        <v>813</v>
       </c>
       <c r="Q95" s="44" t="s">
         <v>334</v>
       </c>
       <c r="R95" s="44" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="236.25" x14ac:dyDescent="0.25">
@@ -10885,37 +10873,37 @@
         <v>89</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C96" s="10">
         <v>7</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G96" s="45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H96" s="58" t="s">
+        <v>599</v>
+      </c>
+      <c r="I96" s="59" t="s">
         <v>600</v>
-      </c>
-      <c r="I96" s="59" t="s">
-        <v>601</v>
       </c>
       <c r="J96" s="56" t="s">
         <v>1</v>
       </c>
       <c r="K96" s="60" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L96" s="60" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M96" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -10926,7 +10914,7 @@
         <v>Audit</v>
       </c>
       <c r="O96" s="46" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P96" s="47" t="s">
         <v>0</v>
@@ -10935,7 +10923,7 @@
         <v>337</v>
       </c>
       <c r="R96" s="44" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
@@ -10943,28 +10931,28 @@
         <v>92</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C97" s="10">
         <v>7</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G97" s="45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H97" s="58" t="s">
+        <v>601</v>
+      </c>
+      <c r="I97" s="59" t="s">
         <v>602</v>
-      </c>
-      <c r="I97" s="59" t="s">
-        <v>603</v>
       </c>
       <c r="J97" s="56" t="s">
         <v>1</v>
@@ -10984,7 +10972,7 @@
         <v>Audit</v>
       </c>
       <c r="O97" s="46" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P97" s="47" t="s">
         <v>0</v>
@@ -10998,31 +10986,31 @@
     </row>
     <row r="98" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A98" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C98" s="10">
         <v>7</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G98" s="45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H98" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="I98" s="44" t="s">
         <v>609</v>
-      </c>
-      <c r="I98" s="44" t="s">
-        <v>610</v>
       </c>
       <c r="J98" s="46" t="s">
         <v>1</v>
@@ -11042,16 +11030,16 @@
         <v>Audit</v>
       </c>
       <c r="O98" s="46" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P98" s="44" t="s">
         <v>0</v>
       </c>
       <c r="Q98" s="44" t="s">
+        <v>913</v>
+      </c>
+      <c r="R98" s="44" t="s">
         <v>914</v>
-      </c>
-      <c r="R98" s="44" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
@@ -11059,25 +11047,25 @@
         <v>115</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C99" s="10">
         <v>7</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I99" s="49" t="s">
         <v>116</v>
@@ -11117,37 +11105,37 @@
         <v>74</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C100" s="10">
         <v>7</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G100" s="54" t="s">
         <v>134</v>
       </c>
       <c r="H100" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="I100" s="49" t="s">
         <v>612</v>
-      </c>
-      <c r="I100" s="49" t="s">
-        <v>613</v>
       </c>
       <c r="J100" s="52" t="s">
         <v>259</v>
       </c>
       <c r="K100" s="54" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L100" s="54" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M100" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -11175,34 +11163,34 @@
         <v>78</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C101" s="10">
         <v>7</v>
       </c>
       <c r="D101" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G101" s="57" t="s">
         <v>133</v>
       </c>
       <c r="H101" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I101" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J101" s="52" t="s">
+        <v>768</v>
+      </c>
+      <c r="K101" s="57" t="s">
         <v>769</v>
-      </c>
-      <c r="K101" s="57" t="s">
-        <v>770</v>
       </c>
       <c r="L101" s="57" t="s">
         <v>3</v>
@@ -11222,10 +11210,10 @@
         <v>77</v>
       </c>
       <c r="Q101" s="44" t="s">
-        <v>341</v>
+        <v>1</v>
       </c>
       <c r="R101" s="44" t="s">
-        <v>916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
@@ -11233,19 +11221,19 @@
         <v>81</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C102" s="10">
         <v>7</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G102" s="57" t="s">
         <v>133</v>
@@ -11254,7 +11242,7 @@
         <v>82</v>
       </c>
       <c r="I102" s="49" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J102" s="56" t="s">
         <v>260</v>
@@ -11291,28 +11279,28 @@
         <v>80</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C103" s="10">
         <v>7</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G103" s="54" t="s">
         <v>133</v>
       </c>
       <c r="H103" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I103" s="49" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J103" s="46" t="s">
         <v>261</v>
@@ -11321,7 +11309,7 @@
         <v>140</v>
       </c>
       <c r="L103" s="45" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M103" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -11338,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="Q103" s="44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R103" s="44" t="s">
         <v>1</v>
@@ -11349,28 +11337,28 @@
         <v>76</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C104" s="10">
         <v>7</v>
       </c>
       <c r="D104" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G104" s="54" t="s">
         <v>133</v>
       </c>
       <c r="H104" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="I104" s="44" t="s">
         <v>619</v>
-      </c>
-      <c r="I104" s="44" t="s">
-        <v>620</v>
       </c>
       <c r="J104" s="46" t="s">
         <v>262</v>
@@ -11407,28 +11395,28 @@
         <v>79</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C105" s="10">
         <v>7</v>
       </c>
       <c r="D105" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G105" s="57" t="s">
         <v>134</v>
       </c>
       <c r="H105" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="I105" s="59" t="s">
         <v>621</v>
-      </c>
-      <c r="I105" s="59" t="s">
-        <v>622</v>
       </c>
       <c r="J105" s="56" t="s">
         <v>255</v>
@@ -11462,40 +11450,40 @@
     </row>
     <row r="106" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="43" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C106" s="10">
         <v>7</v>
       </c>
       <c r="D106" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F106" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G106" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H106" s="43" t="s">
+        <v>622</v>
+      </c>
+      <c r="I106" s="44" t="s">
         <v>623</v>
       </c>
-      <c r="I106" s="44" t="s">
-        <v>624</v>
-      </c>
       <c r="J106" s="46" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K106" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L106" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M106" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -11506,54 +11494,54 @@
         <v>Audit</v>
       </c>
       <c r="O106" s="46" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P106" s="44" t="s">
         <v>0</v>
       </c>
       <c r="Q106" s="44" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="R106" s="44" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A107" s="53" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C107" s="10">
         <v>7</v>
       </c>
       <c r="D107" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F107" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G107" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H107" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="I107" s="44" t="s">
         <v>626</v>
-      </c>
-      <c r="I107" s="44" t="s">
-        <v>627</v>
       </c>
       <c r="J107" s="46" t="s">
         <v>56</v>
       </c>
       <c r="K107" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L107" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M107" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -11578,40 +11566,40 @@
     </row>
     <row r="108" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A108" s="53" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C108" s="10">
         <v>7</v>
       </c>
       <c r="D108" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F108" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G108" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H108" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="I108" s="44" t="s">
         <v>628</v>
-      </c>
-      <c r="I108" s="44" t="s">
-        <v>629</v>
       </c>
       <c r="J108" s="46" t="s">
         <v>57</v>
       </c>
       <c r="K108" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L108" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M108" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -11636,40 +11624,40 @@
     </row>
     <row r="109" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A109" s="53" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C109" s="10">
         <v>7</v>
       </c>
       <c r="D109" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F109" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G109" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H109" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="I109" s="44" t="s">
         <v>630</v>
-      </c>
-      <c r="I109" s="44" t="s">
-        <v>631</v>
       </c>
       <c r="J109" s="46" t="s">
         <v>58</v>
       </c>
       <c r="K109" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L109" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M109" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -11694,40 +11682,40 @@
     </row>
     <row r="110" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A110" s="53" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C110" s="10">
         <v>7</v>
       </c>
       <c r="D110" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F110" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G110" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H110" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="I110" s="44" t="s">
         <v>632</v>
-      </c>
-      <c r="I110" s="44" t="s">
-        <v>633</v>
       </c>
       <c r="J110" s="46" t="s">
         <v>59</v>
       </c>
       <c r="K110" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L110" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M110" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -11752,31 +11740,31 @@
     </row>
     <row r="111" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="53" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C111" s="10">
         <v>7</v>
       </c>
       <c r="D111" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F111" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G111" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H111" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="I111" s="44" t="s">
         <v>634</v>
-      </c>
-      <c r="I111" s="44" t="s">
-        <v>635</v>
       </c>
       <c r="J111" s="46" t="s">
         <v>60</v>
@@ -11799,7 +11787,7 @@
         <v>125</v>
       </c>
       <c r="P111" s="44" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q111" s="44" t="s">
         <v>311</v>
@@ -11810,34 +11798,34 @@
     </row>
     <row r="112" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" s="43" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C112" s="10">
         <v>7</v>
       </c>
       <c r="D112" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F112" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G112" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H112" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="I112" s="44" t="s">
         <v>636</v>
       </c>
-      <c r="I112" s="44" t="s">
-        <v>637</v>
-      </c>
       <c r="J112" s="46" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K112" s="45" t="s">
         <v>120</v>
@@ -11857,13 +11845,13 @@
         <v>125</v>
       </c>
       <c r="P112" s="47" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="Q112" s="44" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="R112" s="44" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
@@ -11871,28 +11859,28 @@
         <v>127</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C113" s="10">
         <v>7</v>
       </c>
       <c r="D113" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F113" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G113" s="45" t="s">
         <v>132</v>
       </c>
       <c r="H113" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="I113" s="44" t="s">
         <v>638</v>
-      </c>
-      <c r="I113" s="44" t="s">
-        <v>639</v>
       </c>
       <c r="J113" s="46" t="s">
         <v>129</v>
@@ -11901,7 +11889,7 @@
         <v>130</v>
       </c>
       <c r="L113" s="45" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M113" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -11926,40 +11914,40 @@
     </row>
     <row r="114" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A114" s="44" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C114" s="10">
         <v>7</v>
       </c>
       <c r="D114" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F114" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G114" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H114" s="44" t="s">
+        <v>645</v>
+      </c>
+      <c r="I114" s="44" t="s">
         <v>646</v>
-      </c>
-      <c r="I114" s="44" t="s">
-        <v>647</v>
       </c>
       <c r="J114" s="46" t="s">
         <v>122</v>
       </c>
       <c r="K114" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L114" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M114" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -11984,40 +11972,40 @@
     </row>
     <row r="115" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C115" s="10">
         <v>7</v>
       </c>
       <c r="D115" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F115" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G115" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H115" s="43" t="s">
+        <v>647</v>
+      </c>
+      <c r="I115" s="44" t="s">
         <v>648</v>
-      </c>
-      <c r="I115" s="44" t="s">
-        <v>649</v>
       </c>
       <c r="J115" s="46" t="s">
         <v>123</v>
       </c>
       <c r="K115" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L115" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M115" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -12045,34 +12033,34 @@
         <v>72</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C116" s="10">
         <v>7</v>
       </c>
       <c r="D116" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H116" s="43" t="s">
+        <v>649</v>
+      </c>
+      <c r="I116" s="44" t="s">
         <v>650</v>
-      </c>
-      <c r="I116" s="44" t="s">
-        <v>651</v>
       </c>
       <c r="J116" s="14" t="s">
         <v>66</v>
       </c>
       <c r="K116" s="13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L116" s="11">
         <v>1</v>
@@ -12103,37 +12091,37 @@
         <v>68</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C117" s="10">
         <v>7</v>
       </c>
       <c r="D117" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H117" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="I117" s="44" t="s">
         <v>652</v>
-      </c>
-      <c r="I117" s="44" t="s">
-        <v>653</v>
       </c>
       <c r="J117" s="14" t="s">
         <v>61</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L117" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M117" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -12158,34 +12146,34 @@
     </row>
     <row r="118" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A118" s="43" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C118" s="10">
         <v>7</v>
       </c>
       <c r="D118" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F118" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G118" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H118" s="43" t="s">
+        <v>653</v>
+      </c>
+      <c r="I118" s="44" t="s">
         <v>654</v>
       </c>
-      <c r="I118" s="44" t="s">
-        <v>655</v>
-      </c>
       <c r="J118" s="46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K118" s="45" t="s">
         <v>64</v>
@@ -12208,10 +12196,10 @@
         <v>0</v>
       </c>
       <c r="Q118" s="44" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="R118" s="44" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
@@ -12219,37 +12207,37 @@
         <v>100</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C119" s="10">
         <v>7</v>
       </c>
       <c r="D119" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H119" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="I119" s="44" t="s">
         <v>656</v>
-      </c>
-      <c r="I119" s="44" t="s">
-        <v>657</v>
       </c>
       <c r="J119" s="14" t="s">
         <v>102</v>
       </c>
       <c r="K119" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L119" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M119" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -12269,7 +12257,7 @@
         <v>321</v>
       </c>
       <c r="R119" s="44" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
@@ -12277,37 +12265,37 @@
         <v>99</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C120" s="10">
         <v>7</v>
       </c>
       <c r="D120" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H120" s="43" t="s">
+        <v>657</v>
+      </c>
+      <c r="I120" s="44" t="s">
         <v>658</v>
-      </c>
-      <c r="I120" s="44" t="s">
-        <v>659</v>
       </c>
       <c r="J120" s="14" t="s">
         <v>101</v>
       </c>
       <c r="K120" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L120" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M120" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -12327,7 +12315,7 @@
         <v>322</v>
       </c>
       <c r="R120" s="44" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="121" spans="1:18" ht="63" x14ac:dyDescent="0.25">
@@ -12335,28 +12323,28 @@
         <v>113</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C121" s="10">
         <v>7</v>
       </c>
       <c r="D121" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G121" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H121" s="43" t="s">
+        <v>662</v>
+      </c>
+      <c r="I121" s="44" t="s">
         <v>663</v>
-      </c>
-      <c r="I121" s="44" t="s">
-        <v>664</v>
       </c>
       <c r="J121" s="46" t="s">
         <v>1</v>
@@ -12382,10 +12370,10 @@
         <v>126</v>
       </c>
       <c r="Q121" s="44" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="R121" s="44" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="126" x14ac:dyDescent="0.25">
@@ -12393,28 +12381,28 @@
         <v>263</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C122" s="10">
         <v>7</v>
       </c>
       <c r="D122" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G122" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H122" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="I122" s="44" t="s">
         <v>665</v>
-      </c>
-      <c r="I122" s="44" t="s">
-        <v>666</v>
       </c>
       <c r="J122" s="46" t="s">
         <v>1</v>
@@ -12437,10 +12425,10 @@
         <v>128</v>
       </c>
       <c r="P122" s="44" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q122" s="44" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="R122" s="44" t="s">
         <v>1</v>
@@ -12451,37 +12439,37 @@
         <v>69</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C123" s="10">
         <v>7</v>
       </c>
       <c r="D123" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G123" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H123" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="I123" s="44" t="s">
         <v>667</v>
-      </c>
-      <c r="I123" s="44" t="s">
-        <v>668</v>
       </c>
       <c r="J123" s="46" t="s">
         <v>62</v>
       </c>
       <c r="K123" s="45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L123" s="45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M123" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -12509,37 +12497,37 @@
         <v>73</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C124" s="10">
         <v>7</v>
       </c>
       <c r="D124" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G124" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H124" s="43" t="s">
+        <v>668</v>
+      </c>
+      <c r="I124" s="44" t="s">
         <v>669</v>
-      </c>
-      <c r="I124" s="44" t="s">
-        <v>670</v>
       </c>
       <c r="J124" s="46" t="s">
         <v>63</v>
       </c>
       <c r="K124" s="45" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L124" s="45" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M124" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -12567,37 +12555,37 @@
         <v>71</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C125" s="10">
         <v>7</v>
       </c>
       <c r="D125" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G125" s="46" t="s">
         <v>132</v>
       </c>
       <c r="H125" s="43" t="s">
+        <v>670</v>
+      </c>
+      <c r="I125" s="44" t="s">
         <v>671</v>
-      </c>
-      <c r="I125" s="44" t="s">
-        <v>672</v>
       </c>
       <c r="J125" s="46" t="s">
         <v>129</v>
       </c>
       <c r="K125" s="45" t="s">
+        <v>778</v>
+      </c>
+      <c r="L125" s="45" t="s">
         <v>779</v>
-      </c>
-      <c r="L125" s="45" t="s">
-        <v>780</v>
       </c>
       <c r="M125" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -12625,37 +12613,37 @@
         <v>70</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C126" s="10">
         <v>7</v>
       </c>
       <c r="D126" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G126" s="46" t="s">
         <v>134</v>
       </c>
       <c r="H126" s="43" t="s">
+        <v>672</v>
+      </c>
+      <c r="I126" s="44" t="s">
         <v>673</v>
-      </c>
-      <c r="I126" s="44" t="s">
-        <v>674</v>
       </c>
       <c r="J126" s="46" t="s">
         <v>67</v>
       </c>
       <c r="K126" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L126" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M126" s="14" t="str">
         <f>IF(Table2[[#This Row],[Installation Default Value]]=Table2[[#This Row],[Baseline Suggested Value]],"YES","NO")</f>
@@ -12675,11 +12663,11 @@
         <v>327</v>
       </c>
       <c r="R126" s="44" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <sheetProtection autoFilter="0"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
